--- a/NFL Data/TopFullStats.xlsx
+++ b/NFL Data/TopFullStats.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1ec96c86650edab5/Desktop/GT Boot Camp/Project Repo/2020_gitclass/NFL Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_0EE3E7F412B7B73D247F1A904F0AF2E424B04264" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{41A6137B-3071-44DA-B4F6-4D57636D3654}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="-1650" yWindow="-16200" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Defense" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="Rushing" sheetId="4" r:id="rId4"/>
     <sheet name="Salary" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2240,8 +2246,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2304,6 +2310,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2350,7 +2364,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2382,9 +2396,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2416,6 +2448,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2591,14 +2641,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2645,7 +2713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2692,7 +2760,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2739,7 +2807,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2786,7 +2854,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2833,7 +2901,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2880,7 +2948,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2927,7 +2995,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2974,7 +3042,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3021,7 +3089,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3068,7 +3136,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3115,7 +3183,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3162,7 +3230,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3209,7 +3277,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -3256,7 +3324,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3303,7 +3371,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3350,7 +3418,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3397,7 +3465,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3444,7 +3512,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3491,7 +3559,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -3538,7 +3606,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -3585,7 +3653,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -3632,7 +3700,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -3679,7 +3747,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -3726,7 +3794,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -3773,7 +3841,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -3820,7 +3888,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -3867,7 +3935,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -3914,7 +3982,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -3961,7 +4029,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -4008,7 +4076,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -4055,7 +4123,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -4102,7 +4170,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -4149,7 +4217,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -4196,7 +4264,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -4243,7 +4311,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -4290,7 +4358,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -4337,7 +4405,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -4384,7 +4452,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -4431,7 +4499,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -4478,7 +4546,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -4525,7 +4593,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -4572,7 +4640,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -4619,7 +4687,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -4666,7 +4734,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -4713,7 +4781,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -4760,7 +4828,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -4807,7 +4875,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -4854,7 +4922,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -4901,7 +4969,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -4948,7 +5016,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -4995,7 +5063,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -5042,7 +5110,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -5089,7 +5157,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -5136,7 +5204,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -5183,7 +5251,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -5230,7 +5298,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -5277,7 +5345,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -5324,7 +5392,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -5371,7 +5439,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -5418,7 +5486,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -5465,7 +5533,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -5512,7 +5580,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -5559,7 +5627,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -5606,7 +5674,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -5653,7 +5721,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -5700,7 +5768,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -5747,7 +5815,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -5794,7 +5862,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -5841,7 +5909,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -5888,7 +5956,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -5935,7 +6003,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -5982,7 +6050,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -6029,7 +6097,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -6076,7 +6144,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -6123,7 +6191,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -6170,7 +6238,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -6217,7 +6285,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -6264,7 +6332,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>23</v>
       </c>
@@ -6311,7 +6379,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -6358,7 +6426,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>21</v>
       </c>
@@ -6405,7 +6473,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>22</v>
       </c>
@@ -6452,7 +6520,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -6499,7 +6567,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -6546,7 +6614,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -6593,7 +6661,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -6640,7 +6708,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -6687,7 +6755,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -6734,7 +6802,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>16</v>
       </c>
@@ -6781,7 +6849,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -6828,7 +6896,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>18</v>
       </c>
@@ -6875,7 +6943,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -6922,7 +6990,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -6969,7 +7037,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -7016,7 +7084,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>24</v>
       </c>
@@ -7063,7 +7131,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>21</v>
       </c>
@@ -7110,7 +7178,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -7157,7 +7225,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -7204,7 +7272,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -7251,7 +7319,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -7298,7 +7366,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>18</v>
       </c>
@@ -7345,7 +7413,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -7392,7 +7460,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -7439,7 +7507,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>23</v>
       </c>
@@ -7486,7 +7554,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>24</v>
       </c>
@@ -7533,7 +7601,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>21</v>
       </c>
@@ -7580,7 +7648,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>22</v>
       </c>
@@ -7627,7 +7695,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -7674,7 +7742,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>16</v>
       </c>
@@ -7721,7 +7789,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -7768,7 +7836,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>18</v>
       </c>
@@ -7815,7 +7883,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -7862,7 +7930,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>20</v>
       </c>
@@ -7909,7 +7977,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>22</v>
       </c>
@@ -7956,7 +8024,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -8003,7 +8071,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>16</v>
       </c>
@@ -8050,7 +8118,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -8097,7 +8165,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>18</v>
       </c>
@@ -8144,7 +8212,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -8191,7 +8259,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -8238,7 +8306,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -8285,7 +8353,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>16</v>
       </c>
@@ -8332,7 +8400,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>17</v>
       </c>
@@ -8379,7 +8447,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>18</v>
       </c>
@@ -8426,7 +8494,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -8473,7 +8541,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>20</v>
       </c>
@@ -8520,7 +8588,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>21</v>
       </c>
@@ -8567,7 +8635,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>22</v>
       </c>
@@ -8614,7 +8682,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -8661,7 +8729,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>16</v>
       </c>
@@ -8708,7 +8776,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -8755,7 +8823,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>18</v>
       </c>
@@ -8802,7 +8870,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>19</v>
       </c>
@@ -8849,7 +8917,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -8896,7 +8964,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -8943,7 +9011,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>18</v>
       </c>
@@ -8990,7 +9058,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -9037,7 +9105,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>20</v>
       </c>
@@ -9084,7 +9152,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -9131,7 +9199,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>18</v>
       </c>
@@ -9178,7 +9246,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>19</v>
       </c>
@@ -9225,7 +9293,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>20</v>
       </c>
@@ -9272,7 +9340,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>23</v>
       </c>
@@ -9319,7 +9387,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>24</v>
       </c>
@@ -9366,7 +9434,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>21</v>
       </c>
@@ -9413,7 +9481,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>22</v>
       </c>
@@ -9460,7 +9528,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -9507,7 +9575,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -9554,7 +9622,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -9601,7 +9669,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>18</v>
       </c>
@@ -9648,7 +9716,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -9695,7 +9763,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -9742,7 +9810,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>17</v>
       </c>
@@ -9789,7 +9857,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>18</v>
       </c>
@@ -9836,7 +9904,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>19</v>
       </c>
@@ -9883,7 +9951,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>20</v>
       </c>
@@ -9930,7 +9998,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>16</v>
       </c>
@@ -9977,7 +10045,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>17</v>
       </c>
@@ -10024,7 +10092,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>18</v>
       </c>
@@ -10071,7 +10139,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>19</v>
       </c>
@@ -10118,7 +10186,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>20</v>
       </c>
@@ -10171,14 +10239,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10213,7 +10296,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -10248,7 +10331,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -10283,7 +10366,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -10318,7 +10401,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -10353,7 +10436,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -10388,7 +10471,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -10423,7 +10506,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -10458,7 +10541,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -10493,7 +10576,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -10528,7 +10611,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -10563,7 +10646,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -10598,7 +10681,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -10633,7 +10716,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -10668,7 +10751,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -10703,7 +10786,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -10738,7 +10821,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -10773,7 +10856,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -10808,7 +10891,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -10843,7 +10926,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -10878,7 +10961,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -10913,7 +10996,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -10948,7 +11031,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -10983,7 +11066,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -11018,7 +11101,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -11053,7 +11136,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -11088,7 +11171,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -11123,7 +11206,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -11158,7 +11241,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -11193,7 +11276,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -11228,7 +11311,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -11263,7 +11346,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -11298,7 +11381,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -11333,7 +11416,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -11368,7 +11451,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -11403,7 +11486,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -11438,7 +11521,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -11473,7 +11556,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -11508,7 +11591,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -11543,7 +11626,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -11578,7 +11661,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -11613,7 +11696,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -11648,7 +11731,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -11683,7 +11766,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -11718,7 +11801,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -11753,7 +11836,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -11788,7 +11871,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -11823,7 +11906,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -11858,7 +11941,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -11893,7 +11976,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -11928,7 +12011,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -11963,7 +12046,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -11998,7 +12081,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -12033,7 +12116,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -12068,7 +12151,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -12103,7 +12186,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -12138,7 +12221,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -12173,7 +12256,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -12208,7 +12291,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -12243,7 +12326,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -12278,7 +12361,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -12313,7 +12396,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -12348,7 +12431,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -12383,7 +12466,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -12418,7 +12501,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -12453,7 +12536,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -12488,7 +12571,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -12523,7 +12606,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -12558,7 +12641,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -12593,7 +12676,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -12628,7 +12711,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -12663,7 +12746,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -12698,7 +12781,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -12733,7 +12816,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -12768,7 +12851,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -12803,7 +12886,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -12838,7 +12921,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -12873,7 +12956,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -12914,14 +12997,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12956,7 +13039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -12991,7 +13074,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -13026,7 +13109,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -13061,7 +13144,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -13096,7 +13179,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -13131,7 +13214,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -13166,7 +13249,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -13201,7 +13284,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -13236,7 +13319,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -13271,7 +13354,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -13306,7 +13389,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -13341,7 +13424,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -13376,7 +13459,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -13411,7 +13494,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -13446,7 +13529,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -13481,7 +13564,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -13516,7 +13599,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -13551,7 +13634,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -13586,7 +13669,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -13621,7 +13704,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -13656,7 +13739,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -13691,7 +13774,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -13726,7 +13809,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -13761,7 +13844,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -13796,7 +13879,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -13831,7 +13914,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -13866,7 +13949,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -13901,7 +13984,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -13936,7 +14019,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -13971,7 +14054,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -14006,7 +14089,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -14041,7 +14124,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -14076,7 +14159,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -14111,7 +14194,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -14146,7 +14229,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -14181,7 +14264,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -14216,7 +14299,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -14251,7 +14334,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -14286,7 +14369,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -14321,7 +14404,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -14356,7 +14439,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -14391,7 +14474,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -14426,7 +14509,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -14461,7 +14544,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -14496,7 +14579,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -14531,7 +14614,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -14566,7 +14649,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -14601,7 +14684,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -14636,7 +14719,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -14671,7 +14754,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -14706,7 +14789,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -14741,7 +14824,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -14776,7 +14859,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -14811,7 +14894,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -14846,7 +14929,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -14881,7 +14964,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -14916,7 +14999,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -14951,7 +15034,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -14986,7 +15069,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -15027,14 +15110,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15069,7 +15152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -15104,7 +15187,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -15139,7 +15222,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -15174,7 +15257,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -15215,14 +15298,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>728</v>
       </c>
@@ -15239,7 +15330,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>244</v>
       </c>
@@ -15256,7 +15347,7 @@
         <v>150000000</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -15273,7 +15364,7 @@
         <v>141000000</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>246</v>
       </c>
@@ -15290,7 +15381,7 @@
         <v>140000000</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>243</v>
       </c>
@@ -15307,7 +15398,7 @@
         <v>137500000</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -15324,7 +15415,7 @@
         <v>135000000</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>245</v>
       </c>
@@ -15341,7 +15432,7 @@
         <v>135000000</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>237</v>
       </c>
@@ -15358,7 +15449,7 @@
         <v>134000000</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>242</v>
       </c>
@@ -15375,7 +15466,7 @@
         <v>134000000</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>240</v>
       </c>
@@ -15392,7 +15483,7 @@
         <v>128000000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>241</v>
       </c>
@@ -15409,7 +15500,7 @@
         <v>125000000</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -15426,7 +15517,7 @@
         <v>114100000</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -15443,7 +15534,7 @@
         <v>105000000</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -15460,7 +15551,7 @@
         <v>104000000</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -15477,7 +15568,7 @@
         <v>102600000</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -15494,7 +15585,7 @@
         <v>100005425</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>524</v>
       </c>
@@ -15511,7 +15602,7 @@
         <v>96250000</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>238</v>
       </c>
@@ -15528,7 +15619,7 @@
         <v>94000000</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>711</v>
       </c>
@@ -15545,7 +15636,7 @@
         <v>90000000</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>733</v>
       </c>
@@ -15562,7 +15653,7 @@
         <v>90000000</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -15579,7 +15670,7 @@
         <v>90000000</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -15596,7 +15687,7 @@
         <v>85500000</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -15613,7 +15704,7 @@
         <v>85000000</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -15630,7 +15721,7 @@
         <v>82500000</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>525</v>
       </c>
@@ -15647,7 +15738,7 @@
         <v>82500000</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>519</v>
       </c>
@@ -15664,7 +15755,7 @@
         <v>81000000</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>521</v>
       </c>
@@ -15681,7 +15772,7 @@
         <v>81000000</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -15698,7 +15789,7 @@
         <v>80500000</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>734</v>
       </c>
@@ -15715,7 +15806,7 @@
         <v>80000000</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>522</v>
       </c>
@@ -15732,7 +15823,7 @@
         <v>75500000</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -15749,7 +15840,7 @@
         <v>75250000</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>735</v>
       </c>
@@ -15766,7 +15857,7 @@
         <v>72500000</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -15783,7 +15874,7 @@
         <v>72000000</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>736</v>
       </c>
@@ -15800,7 +15891,7 @@
         <v>72000000</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>526</v>
       </c>
@@ -15817,7 +15908,7 @@
         <v>72000000</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>239</v>
       </c>
@@ -15834,7 +15925,7 @@
         <v>68000000</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -15851,7 +15942,7 @@
         <v>68000000</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>523</v>
       </c>
@@ -15868,7 +15959,7 @@
         <v>66000000</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>737</v>
       </c>
@@ -15885,7 +15976,7 @@
         <v>66000000</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -15902,7 +15993,7 @@
         <v>66000000</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -15919,7 +16010,7 @@
         <v>65200000</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>518</v>
       </c>
@@ -15936,7 +16027,7 @@
         <v>64200000</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -15953,7 +16044,7 @@
         <v>64000000</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>738</v>
       </c>
@@ -15970,7 +16061,7 @@
         <v>62000000</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -15987,7 +16078,7 @@
         <v>60400000</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>520</v>
       </c>
@@ -16004,7 +16095,7 @@
         <v>58000000</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -16021,7 +16112,7 @@
         <v>57000000</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -16038,7 +16129,7 @@
         <v>57000000</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -16055,7 +16146,7 @@
         <v>54000000</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>527</v>
       </c>
@@ -16072,7 +16163,7 @@
         <v>54000000</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>28</v>
       </c>
